--- a/Rrt_Nawaqis2025-05-18.xlsx
+++ b/Rrt_Nawaqis2025-05-18.xlsx
@@ -41,31 +41,151 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDOMALTOL  IRON30MG 56CAPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJOCEPH 1000MG  VIAL</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>OCEAN FLUID+SPRAY</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORCAVI  30PLECES</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>OXFRESH SPRAY FOR MOUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK NAIL  LOTION</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMPI  14CAPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>TENSRELIVE 600 MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>TRI TECT ACNE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
   <si>
     <t>ULTRA CARE SKIN CARE 100ML</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>UMEGA KIDS ORAL DROPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>YAGO MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
   </si>
   <si>
     <t xml:space="preserve">عضاضه الجو </t>
@@ -74,7 +194,13 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>Sunday, 18 May, 2025 2:30 PM</t>
+    <t>نونو كولونيا للاطفال</t>
+  </si>
+  <si>
+    <t>نيفيا سوفت كريم 50 مل</t>
+  </si>
+  <si>
+    <t>Sunday, 18 May, 2025 3:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -631,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45795.604818767722</v>
+        <v>45795.641546670748</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -640,7 +766,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45795.604818767722</v>
+        <v>45795.641546670748</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -723,7 +849,7 @@
         <v>17</v>
       </c>
       <c t="s" r="M8" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -731,7 +857,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B9" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -739,7 +865,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -753,29 +879,596 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="12">
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c t="s" r="B10" s="8">
         <v>21</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c t="s" r="F10" s="13">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c t="s" r="K10" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L10" s="8">
         <v>22</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c t="s" r="I10" s="15">
+      <c t="s" r="M10" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c t="s" r="B11" s="8">
         <v>23</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>24</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c t="s" r="K11" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L11" s="8">
+        <v>26</v>
+      </c>
+      <c t="s" r="M11" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c t="s" r="B12" s="8">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c t="s" r="K12" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L12" s="8">
+        <v>29</v>
+      </c>
+      <c t="s" r="M12" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c t="s" r="B13" s="8">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c t="s" r="K13" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L13" s="8">
+        <v>31</v>
+      </c>
+      <c t="s" r="M13" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c t="s" r="B14" s="8">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c t="s" r="K14" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L14" s="8">
+        <v>33</v>
+      </c>
+      <c t="s" r="M14" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c t="s" r="B15" s="8">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>35</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c t="s" r="K15" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L15" s="8">
+        <v>36</v>
+      </c>
+      <c t="s" r="M15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c t="s" r="B16" s="8">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>28</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c t="s" r="K16" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L16" s="8">
+        <v>38</v>
+      </c>
+      <c t="s" r="M16" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c t="s" r="B17" s="8">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>28</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c t="s" r="K17" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L17" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M17" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c t="s" r="B18" s="8">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>28</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c t="s" r="K18" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L18" s="8">
+        <v>41</v>
+      </c>
+      <c t="s" r="M18" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c t="s" r="B19" s="8">
+        <v>42</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>35</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c t="s" r="K19" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L19" s="8">
+        <v>43</v>
+      </c>
+      <c t="s" r="M19" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c t="s" r="B20" s="8">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c t="s" r="K20" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L20" s="8">
+        <v>45</v>
+      </c>
+      <c t="s" r="M20" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c t="s" r="B21" s="8">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>35</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c t="s" r="K21" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L21" s="8">
+        <v>47</v>
+      </c>
+      <c t="s" r="M21" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c t="s" r="B22" s="8">
+        <v>48</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c t="s" r="K22" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L22" s="8">
+        <v>49</v>
+      </c>
+      <c t="s" r="M22" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c t="s" r="B23" s="8">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>35</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c t="s" r="K23" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L23" s="8">
+        <v>51</v>
+      </c>
+      <c t="s" r="M23" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c t="s" r="B24" s="8">
+        <v>52</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>28</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c t="s" r="K24" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L24" s="8">
+        <v>38</v>
+      </c>
+      <c t="s" r="M24" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c t="s" r="B25" s="8">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>54</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c t="s" r="K25" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L25" s="8">
+        <v>55</v>
+      </c>
+      <c t="s" r="M25" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c t="s" r="B26" s="8">
+        <v>56</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>35</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c t="s" r="K26" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L26" s="8">
+        <v>57</v>
+      </c>
+      <c t="s" r="M26" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c t="s" r="B27" s="8">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c t="s" r="K27" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L27" s="8">
+        <v>49</v>
+      </c>
+      <c t="s" r="M27" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c t="s" r="B28" s="8">
+        <v>59</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>35</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c t="s" r="K28" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L28" s="8">
+        <v>60</v>
+      </c>
+      <c t="s" r="M28" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c t="s" r="B29" s="8">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>35</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c t="s" r="K29" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L29" s="8">
+        <v>49</v>
+      </c>
+      <c t="s" r="M29" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c t="s" r="B30" s="8">
+        <v>62</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c t="s" r="K30" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L30" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M30" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="12">
+        <v>63</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c t="s" r="F31" s="13">
+        <v>64</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c t="s" r="I31" s="15">
+        <v>65</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="58">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -789,9 +1482,51 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:M31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/Rrt_Nawaqis2025-05-18.xlsx
+++ b/Rrt_Nawaqis2025-05-18.xlsx
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45795.641546670748</v>
+        <v>45795.641648883247</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -766,7 +766,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45795.641546670748</v>
+        <v>45795.641648883247</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/Rrt_Nawaqis2025-05-18.xlsx
+++ b/Rrt_Nawaqis2025-05-18.xlsx
@@ -200,7 +200,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 18 May, 2025 3:23 PM</t>
+    <t>Sunday, 18 May, 2025 3:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45795.641648883247</v>
+        <v>45795.642507123172</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -766,7 +766,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45795.641648883247</v>
+        <v>45795.642507123172</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/Rrt_Nawaqis2025-05-18.xlsx
+++ b/Rrt_Nawaqis2025-05-18.xlsx
@@ -200,7 +200,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 18 May, 2025 3:25 PM</t>
+    <t>Sunday, 18 May, 2025 3:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45795.642507123172</v>
+        <v>45795.643224534695</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -766,7 +766,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45795.642507123172</v>
+        <v>45795.643224534695</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/Rrt_Nawaqis2025-05-18.xlsx
+++ b/Rrt_Nawaqis2025-05-18.xlsx
@@ -200,7 +200,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 18 May, 2025 3:26 PM</t>
+    <t>Sunday, 18 May, 2025 3:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45795.643224534695</v>
+        <v>45795.644228292629</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -766,7 +766,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45795.643224534695</v>
+        <v>45795.644228292629</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/Rrt_Nawaqis2025-05-18.xlsx
+++ b/Rrt_Nawaqis2025-05-18.xlsx
@@ -200,7 +200,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Sunday, 18 May, 2025 3:27 PM</t>
+    <t>Sunday, 18 May, 2025 3:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45795.644228292629</v>
+        <v>45795.645637083479</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -766,7 +766,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45795.644228292629</v>
+        <v>45795.645637083479</v>
       </c>
       <c r="K4" s="4"/>
     </row>
